--- a/docs/ISETC2018/ver/Masuratori.xlsx
+++ b/docs/ISETC2018/ver/Masuratori.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Botix\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Botix\Desktop\TDC\TDC\docs\ISETC2018\ver\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>P= cpd*V*V*f</t>
-  </si>
-  <si>
-    <t>Vpd = P/V/V/f</t>
   </si>
   <si>
     <t>Setup: automat secvnetial (vezi lucrare ISETC). Sursa de alimentare stabilizata (V supply 5V), cu afisarea curentului. Generator de functii pentru semnal de tact, amplitudine 5 V, offset 2.5V</t>
@@ -63,6 +60,12 @@
   </si>
   <si>
     <t>Eroare</t>
+  </si>
+  <si>
+    <t>Cpd = P/V/V/f</t>
+  </si>
+  <si>
+    <t>estimation of power dissipation based on the trend</t>
   </si>
 </sst>
 </file>
@@ -403,6 +406,716 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F96F-4101-A82E-D9ED0A771A81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$14:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B004-4D3B-8F8E-2BBE6AF03EF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$14:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B004-4D3B-8F8E-2BBE6AF03EF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$14:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B004-4D3B-8F8E-2BBE6AF03EF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$14:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B004-4D3B-8F8E-2BBE6AF03EF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$14:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B004-4D3B-8F8E-2BBE6AF03EF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$14:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B004-4D3B-8F8E-2BBE6AF03EF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$14:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B004-4D3B-8F8E-2BBE6AF03EF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$14:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.5000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-B004-4D3B-8F8E-2BBE6AF03EF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1487,10 +2200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J24"/>
+  <dimension ref="B1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,40 +2214,43 @@
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
       <c r="F4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>5</v>
       </c>
@@ -1545,11 +2261,11 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f>B5*D5</f>
+        <f t="shared" ref="E5:E23" si="0">B5*D5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -1560,11 +2276,11 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <f>B6*D6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
@@ -1575,11 +2291,11 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f>B7*D7</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1590,14 +2306,14 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <f>B8*D8</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1608,14 +2324,18 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <f>B9*D9</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1">
+        <f>E14/B14/B14/C14</f>
+        <v>2.0000000000000002E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>5</v>
       </c>
@@ -1626,11 +2346,11 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <f>B10*D10</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>5</v>
       </c>
@@ -1641,18 +2361,18 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f>B11*D11</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11">
         <f>30/9000000</f>
         <v>3.3333333333333333E-6</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>5</v>
       </c>
@@ -1663,18 +2383,18 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f>B12*D12</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12">
         <f>40/9000000</f>
         <v>4.4444444444444441E-6</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>5</v>
       </c>
@@ -1685,18 +2405,18 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <f>B13*D13</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13">
         <f>H11/H12</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>5</v>
       </c>
@@ -1707,15 +2427,19 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f>B14*D14</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F14">
         <v>4.78</v>
       </c>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="N14" s="1">
+        <f>0.00000014*B14*B14*C14</f>
+        <v>3.5000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>5</v>
       </c>
@@ -1726,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f>B15*D15</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F15">
@@ -1736,8 +2460,12 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="N15" s="1">
+        <f t="shared" ref="N15:N49" si="1">0.00000014*B15*B15*C15</f>
+        <v>7.0000000000000009</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>5</v>
       </c>
@@ -1748,7 +2476,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <f>B16*D16</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F16">
@@ -1758,8 +2486,12 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="N16" s="1">
+        <f t="shared" si="1"/>
+        <v>10.500000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>5</v>
       </c>
@@ -1770,7 +2502,7 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <f>B17*D17</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="F17" s="1">
@@ -1780,8 +2512,12 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="N17" s="1">
+        <f t="shared" si="1"/>
+        <v>14.000000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>5</v>
       </c>
@@ -1792,7 +2528,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <f>B18*D18</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="F18" s="1">
@@ -1802,8 +2538,12 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="N18" s="1">
+        <f t="shared" si="1"/>
+        <v>17.500000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>5</v>
       </c>
@@ -1814,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="E19">
-        <f>B19*D19</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F19">
@@ -1824,8 +2564,12 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="N19" s="1">
+        <f t="shared" si="1"/>
+        <v>21.000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>5</v>
       </c>
@@ -1836,7 +2580,7 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <f>B20*D20</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="F20">
@@ -1846,8 +2590,12 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="N20" s="1">
+        <f t="shared" si="1"/>
+        <v>24.500000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>5</v>
       </c>
@@ -1858,7 +2606,7 @@
         <v>6</v>
       </c>
       <c r="E21">
-        <f>B21*D21</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="F21">
@@ -1868,8 +2616,12 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="N21" s="1">
+        <f t="shared" si="1"/>
+        <v>28.000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>5</v>
       </c>
@@ -1880,7 +2632,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <f>B22*D22</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="F22" s="1">
@@ -1890,8 +2642,12 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="N22" s="1">
+        <f t="shared" si="1"/>
+        <v>31.500000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>5</v>
       </c>
@@ -1902,7 +2658,7 @@
         <v>7</v>
       </c>
       <c r="E23">
-        <f>B23*D23</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="F23" s="1">
@@ -1912,12 +2668,409 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="N23" s="1">
+        <f t="shared" si="1"/>
+        <v>35.000000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>5</v>
+      </c>
       <c r="C24" s="1">
         <v>11000000</v>
       </c>
+      <c r="F24">
+        <v>50.7550666666667</v>
+      </c>
       <c r="I24" s="1"/>
+      <c r="N24" s="1">
+        <f t="shared" si="1"/>
+        <v>38.500000000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>12000000</v>
+      </c>
+      <c r="F25">
+        <v>55.354406060606003</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="1"/>
+        <v>42.000000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>13000000</v>
+      </c>
+      <c r="F26">
+        <v>59.953745454545398</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="1"/>
+        <v>45.500000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>14000000</v>
+      </c>
+      <c r="F27" s="1">
+        <v>64.553084848484801</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="1"/>
+        <v>49.000000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>15000000</v>
+      </c>
+      <c r="F28" s="1">
+        <v>69.152424242424203</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="1"/>
+        <v>52.500000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>16000000</v>
+      </c>
+      <c r="F29">
+        <v>73.751763636363606</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="1"/>
+        <v>56.000000000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1">
+        <v>17000000</v>
+      </c>
+      <c r="F30">
+        <v>78.351103030302994</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="1"/>
+        <v>59.500000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>18000000</v>
+      </c>
+      <c r="F31">
+        <v>82.950442424242397</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="1"/>
+        <v>63.000000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1">
+        <v>19000000</v>
+      </c>
+      <c r="F32" s="1">
+        <v>87.549781818181799</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="1"/>
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="F33" s="1">
+        <v>92.149121212121202</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="1"/>
+        <v>70.000000000000014</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>21000000</v>
+      </c>
+      <c r="F34">
+        <v>96.748460606060604</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="1"/>
+        <v>73.500000000000014</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>22000000</v>
+      </c>
+      <c r="F35">
+        <v>101.34780000000001</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="1"/>
+        <v>77.000000000000014</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>23000000</v>
+      </c>
+      <c r="F36">
+        <v>105.94713939394001</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="1"/>
+        <v>80.500000000000014</v>
+      </c>
+      <c r="P36">
+        <f>1-125/160</f>
+        <v>0.21875</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1">
+        <v>24000000</v>
+      </c>
+      <c r="F37" s="1">
+        <v>110.546478787879</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="1"/>
+        <v>84.000000000000014</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1">
+        <v>25000000</v>
+      </c>
+      <c r="F38" s="1">
+        <v>115.145818181818</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="1"/>
+        <v>87.500000000000014</v>
+      </c>
+      <c r="P38">
+        <f>1000000000/30000000</f>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1">
+        <v>26000000</v>
+      </c>
+      <c r="F39">
+        <v>119.745157575758</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="1"/>
+        <v>91.000000000000014</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>27000000</v>
+      </c>
+      <c r="F40">
+        <v>124.344496969697</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="1"/>
+        <v>94.500000000000014</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1">
+        <v>28000000</v>
+      </c>
+      <c r="F41">
+        <v>128.94383636363699</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" si="1"/>
+        <v>98.000000000000014</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>29000000</v>
+      </c>
+      <c r="F42" s="1">
+        <v>133.54317575757599</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="1"/>
+        <v>101.50000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="F43" s="1">
+        <v>138.142515151515</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="1"/>
+        <v>105.00000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1">
+        <v>31000000</v>
+      </c>
+      <c r="F44">
+        <v>142.741854545455</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="1"/>
+        <v>108.50000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>32000000</v>
+      </c>
+      <c r="F45">
+        <v>147.341193939394</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="1"/>
+        <v>112.00000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1">
+        <v>33000000</v>
+      </c>
+      <c r="F46">
+        <v>151.940533333334</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" si="1"/>
+        <v>115.50000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1">
+        <v>34000000</v>
+      </c>
+      <c r="F47" s="1">
+        <v>156.53987272727301</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" si="1"/>
+        <v>119.00000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1">
+        <v>35000000</v>
+      </c>
+      <c r="F48" s="1">
+        <v>161.13921212121201</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" si="1"/>
+        <v>122.50000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1">
+        <v>36000000</v>
+      </c>
+      <c r="F49">
+        <v>165.73855151515201</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="1"/>
+        <v>126.00000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
